--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harys/Desktop/pnd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{446E0799-5D43-FE41-9C47-21DA2EA2A611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A645ACD1-FA79-1247-BF4D-8B49B2455E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{5E9AE712-D69A-B540-B6CC-D396FE525917}"/>
+    <workbookView xWindow="7800" yWindow="520" windowWidth="28040" windowHeight="17440" xr2:uid="{5E9AE712-D69A-B540-B6CC-D396FE525917}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -163,15 +159,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="8"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -188,50 +184,137 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$B$1:$T$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$T$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8</c:v>
+                  <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6</c:v>
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0299999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -239,20 +322,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3EF5-3C4D-8F2C-47DAEB28E4DC}"/>
+              <c16:uniqueId val="{0000001D-EB15-5042-B0D6-15B4DFEDFB28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="9"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -269,50 +352,137 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$B$1:$T$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$B$3:$T$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3</c:v>
+                  <c:v>1.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7</c:v>
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2599999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -320,20 +490,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3EF5-3C4D-8F2C-47DAEB28E4DC}"/>
+              <c16:uniqueId val="{0000001E-EB15-5042-B0D6-15B4DFEDFB28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="14"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -341,7 +511,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -350,50 +520,137 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$B$1:$T$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>Sheet1!$B$4:$T$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3</c:v>
+                  <c:v>3.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -401,13 +658,185 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3EF5-3C4D-8F2C-47DAEB28E4DC}"/>
+              <c16:uniqueId val="{00000023-EB15-5042-B0D6-15B4DFEDFB28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000024-EB15-5042-B0D6-15B4DFEDFB28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -445,7 +874,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Angle (rad)</a:t>
+                  <a:t>Number of pendulums</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -565,6 +994,913 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
+                  <a:t>Lyapunov exponent (s-1)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="944548351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lyapunov</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> exponent for varying numbers of pendulums</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$W$1:$AI$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$AI$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8064-D24D-A25D-8EAA3DA01AFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$W$1:$AI$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$3:$AI$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8064-D24D-A25D-8EAA3DA01AFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$W$1:$AI$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$4:$AI$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3199999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8064-D24D-A25D-8EAA3DA01AFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$W$1:$AI$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$5:$AI$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8064-D24D-A25D-8EAA3DA01AFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="816506384"/>
+        <c:axId val="816774080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="816506384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Numbe</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>r of pendulums</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="816774080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="816774080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Lyapunov</a:t>
                 </a:r>
                 <a:r>
@@ -635,7 +1971,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="944548351"/>
+        <c:crossAx val="816506384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -762,6 +2098,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1278,20 +2654,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>356088</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>10258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>32238</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>135793</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1311,6 +3203,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>146538</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>181707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>117230</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>156307</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49C6C6C-5A5F-A54F-BC54-CAF3806DD869}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1616,15 +3544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AFF326-E4EC-8E4E-BCF7-509F296D25C9}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="U2" zoomScale="106" workbookViewId="0">
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>2</v>
       </c>
@@ -1635,77 +3563,528 @@
         <v>4</v>
       </c>
       <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>5</v>
+      </c>
+      <c r="X1">
+        <v>10</v>
+      </c>
+      <c r="Y1">
+        <v>15</v>
+      </c>
+      <c r="Z1">
+        <v>20</v>
+      </c>
+      <c r="AA1">
+        <v>25</v>
+      </c>
+      <c r="AB1">
         <v>30</v>
       </c>
+      <c r="AC1">
+        <v>35</v>
+      </c>
+      <c r="AD1">
+        <v>40</v>
+      </c>
+      <c r="AE1">
+        <v>45</v>
+      </c>
+      <c r="AF1">
+        <v>50</v>
+      </c>
+      <c r="AG1">
+        <v>55</v>
+      </c>
+      <c r="AH1">
+        <v>60</v>
+      </c>
+      <c r="AI1">
+        <v>65</v>
+      </c>
+      <c r="AJ1">
+        <v>70</v>
+      </c>
+      <c r="AK1">
+        <v>75</v>
+      </c>
+      <c r="AL1">
+        <v>80</v>
+      </c>
+      <c r="AM1">
+        <v>85</v>
+      </c>
+      <c r="AN1">
+        <v>90</v>
+      </c>
+      <c r="AO1">
+        <v>95</v>
+      </c>
+      <c r="AP1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E2">
+        <v>1.03</v>
+      </c>
+      <c r="F2">
+        <v>1.34</v>
+      </c>
+      <c r="G2">
+        <v>1.82</v>
+      </c>
+      <c r="H2">
+        <v>1.76</v>
+      </c>
+      <c r="I2">
+        <v>1.39</v>
+      </c>
+      <c r="J2">
+        <v>1.69</v>
+      </c>
+      <c r="K2">
+        <v>1.7</v>
+      </c>
+      <c r="L2">
+        <v>1.49</v>
+      </c>
+      <c r="M2">
+        <v>1.73</v>
+      </c>
+      <c r="N2">
+        <v>1.55</v>
+      </c>
+      <c r="O2">
+        <v>1.66</v>
+      </c>
+      <c r="P2">
+        <v>1.95</v>
+      </c>
+      <c r="Q2">
+        <v>1.76</v>
+      </c>
+      <c r="R2">
+        <v>1.57</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="V2">
+        <v>1.5</v>
+      </c>
+      <c r="W2">
+        <v>1.03</v>
+      </c>
+      <c r="X2">
+        <v>1.69</v>
+      </c>
+      <c r="Y2">
+        <v>1.66</v>
+      </c>
+      <c r="Z2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AA2">
+        <v>1.8</v>
+      </c>
+      <c r="AB2">
+        <v>1.62</v>
+      </c>
+      <c r="AC2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AD2">
+        <v>1.25</v>
+      </c>
+      <c r="AE2">
+        <v>1.33</v>
+      </c>
+      <c r="AF2">
+        <v>1.17</v>
+      </c>
+      <c r="AG2">
+        <v>1.25</v>
+      </c>
+      <c r="AH2">
+        <v>1.45</v>
+      </c>
+      <c r="AI2">
+        <v>1.17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="C3">
-        <v>1.3</v>
+        <v>1.93</v>
       </c>
       <c r="D3">
-        <v>1.2</v>
+        <v>1.82</v>
+      </c>
+      <c r="E3">
+        <v>2.15</v>
+      </c>
+      <c r="F3">
+        <v>2.75</v>
+      </c>
+      <c r="G3">
+        <v>2.68</v>
+      </c>
+      <c r="H3">
+        <v>3.06</v>
+      </c>
+      <c r="I3">
+        <v>2.76</v>
+      </c>
+      <c r="J3">
+        <v>2.71</v>
+      </c>
+      <c r="K3">
+        <v>2.56</v>
+      </c>
+      <c r="L3">
+        <v>2.56</v>
+      </c>
+      <c r="M3">
+        <v>2.64</v>
+      </c>
+      <c r="N3">
+        <v>2.67</v>
+      </c>
+      <c r="O3">
+        <v>2.57</v>
+      </c>
+      <c r="P3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="Q3">
+        <v>2.25</v>
+      </c>
+      <c r="R3">
+        <v>2.37</v>
+      </c>
+      <c r="S3">
+        <v>2.12</v>
+      </c>
+      <c r="T3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>2.15</v>
+      </c>
+      <c r="X3">
+        <v>2.71</v>
+      </c>
+      <c r="Y3">
+        <v>2.57</v>
+      </c>
+      <c r="Z3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AA3">
+        <v>2.37</v>
+      </c>
+      <c r="AB3">
+        <v>1.56</v>
+      </c>
+      <c r="AC3">
+        <v>1.67</v>
+      </c>
+      <c r="AD3">
+        <v>1.98</v>
+      </c>
+      <c r="AE3">
+        <v>1.82</v>
+      </c>
+      <c r="AF3">
+        <v>1.31</v>
+      </c>
+      <c r="AG3">
+        <v>1.6</v>
+      </c>
+      <c r="AH3">
+        <v>1.49</v>
+      </c>
+      <c r="AI3">
+        <v>1.31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="B4">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="C4">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D4">
-        <v>1.9</v>
+        <v>3.6</v>
+      </c>
+      <c r="E4">
+        <v>3.71</v>
+      </c>
+      <c r="F4">
+        <v>3.59</v>
+      </c>
+      <c r="G4">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="H4">
+        <v>3.8</v>
+      </c>
+      <c r="I4">
+        <v>3.66</v>
+      </c>
+      <c r="J4">
+        <v>3.72</v>
+      </c>
+      <c r="K4">
+        <v>3.24</v>
+      </c>
+      <c r="L4">
+        <v>3.54</v>
+      </c>
+      <c r="M4">
+        <v>3.11</v>
+      </c>
+      <c r="N4">
+        <v>3.74</v>
+      </c>
+      <c r="O4">
+        <v>2.95</v>
+      </c>
+      <c r="P4">
+        <v>2.92</v>
+      </c>
+      <c r="Q4">
+        <v>2.74</v>
+      </c>
+      <c r="R4">
+        <v>2.88</v>
+      </c>
+      <c r="S4">
+        <v>2.7</v>
+      </c>
+      <c r="T4">
+        <v>2.86</v>
+      </c>
+      <c r="V4">
+        <v>2.5</v>
+      </c>
+      <c r="W4">
+        <v>3.71</v>
+      </c>
+      <c r="X4">
+        <v>3.72</v>
+      </c>
+      <c r="Y4">
+        <v>2.95</v>
+      </c>
+      <c r="Z4">
+        <v>2.86</v>
+      </c>
+      <c r="AA4">
+        <v>3.04</v>
+      </c>
+      <c r="AB4">
+        <v>2.52</v>
+      </c>
+      <c r="AC4">
+        <v>2.35</v>
+      </c>
+      <c r="AD4">
+        <v>2.44</v>
+      </c>
+      <c r="AE4">
+        <v>2.65</v>
+      </c>
+      <c r="AF4">
+        <v>2.23</v>
+      </c>
+      <c r="AG4">
+        <v>2.25</v>
+      </c>
+      <c r="AH4">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AI4">
+        <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>1.8</v>
+        <v>1.39</v>
       </c>
       <c r="C5">
-        <v>2.2000000000000002</v>
+        <v>2.87</v>
       </c>
       <c r="D5">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+        <v>3.25</v>
+      </c>
+      <c r="E5">
+        <v>4.91</v>
+      </c>
+      <c r="F5">
+        <v>4.22</v>
+      </c>
+      <c r="G5">
+        <v>5.27</v>
+      </c>
+      <c r="H5">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="I5">
+        <v>4.07</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>4.07</v>
+      </c>
+      <c r="L5">
+        <v>6.2</v>
+      </c>
+      <c r="M5">
+        <v>5.17</v>
+      </c>
+      <c r="N5">
+        <v>5.71</v>
+      </c>
+      <c r="O5">
+        <v>5.26</v>
+      </c>
+      <c r="P5">
+        <v>5.24</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>5.4</v>
+      </c>
+      <c r="S5">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="T5">
+        <v>5.04</v>
+      </c>
+      <c r="V5">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>1.6</v>
-      </c>
-      <c r="C6">
-        <v>2.7</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
+      <c r="W5">
+        <v>4.91</v>
+      </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <v>5.26</v>
+      </c>
+      <c r="Z5">
+        <v>5.04</v>
+      </c>
+      <c r="AA5">
+        <v>5.08</v>
+      </c>
+      <c r="AB5">
+        <v>5.52</v>
+      </c>
+      <c r="AC5">
+        <v>5.08</v>
+      </c>
+      <c r="AD5">
+        <v>5.08</v>
+      </c>
+      <c r="AE5">
+        <v>4.5</v>
+      </c>
+      <c r="AF5">
+        <v>4.92</v>
+      </c>
+      <c r="AG5">
+        <v>4.45</v>
+      </c>
+      <c r="AH5">
+        <v>4.01</v>
+      </c>
+      <c r="AI5">
+        <v>3.69</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harys/Desktop/pnd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A645ACD1-FA79-1247-BF4D-8B49B2455E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A474E3-F13D-B545-8C23-AFC6A667AB12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="520" windowWidth="28040" windowHeight="17440" xr2:uid="{5E9AE712-D69A-B540-B6CC-D396FE525917}"/>
+    <workbookView xWindow="4680" yWindow="1700" windowWidth="31160" windowHeight="19100" xr2:uid="{5E9AE712-D69A-B540-B6CC-D396FE525917}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1248,10 +1248,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$W$1:$AI$1</c:f>
+              <c:f>Sheet1!$W$1:$AP$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1290,16 +1290,37 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$2:$AI$2</c:f>
+              <c:f>Sheet1!$W$2:$AP$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.03</c:v>
                 </c:pt>
@@ -1338,6 +1359,27 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1377,10 +1419,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$W$1:$AI$1</c:f>
+              <c:f>Sheet1!$W$1:$AP$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1419,16 +1461,37 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$3:$AI$3</c:f>
+              <c:f>Sheet1!$W$3:$AP$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2.15</c:v>
                 </c:pt>
@@ -1467,6 +1530,27 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,10 +1590,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$W$1:$AI$1</c:f>
+              <c:f>Sheet1!$W$1:$AP$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1548,16 +1632,37 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$4:$AI$4</c:f>
+              <c:f>Sheet1!$W$4:$AP$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>3.71</c:v>
                 </c:pt>
@@ -1596,6 +1701,27 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2599999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1635,10 +1761,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$W$1:$AI$1</c:f>
+              <c:f>Sheet1!$W$1:$AP$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1677,16 +1803,37 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$5:$AI$5</c:f>
+              <c:f>Sheet1!$W$5:$AP$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>4.91</c:v>
                 </c:pt>
@@ -1725,6 +1872,27 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2058,6 +2226,1092 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lyapunov</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> exponent for varying numbers of pendulums</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AR$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AS$1:$BL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AS$2:$BL$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B26-C047-B58E-0B39B5B559FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AR$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AS$1:$BL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AS$3:$BL$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B26-C047-B58E-0B39B5B559FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AR$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AS$1:$BL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AS$4:$BL$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0B26-C047-B58E-0B39B5B559FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AR$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AS$1:$BL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AS$5:$BL$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.91</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0B26-C047-B58E-0B39B5B559FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="905998767"/>
+        <c:axId val="880142815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="905998767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of pendulums</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880142815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="880142815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Lyapunov</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> exponent (s-1)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905998767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2138,6 +3392,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2655,6 +3949,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3239,6 +5049,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>270933</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DDF326-BC58-B14D-81DC-DDB48A972731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3544,15 +5390,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AFF326-E4EC-8E4E-BCF7-509F296D25C9}">
-  <dimension ref="A1:AP5"/>
+  <dimension ref="A1:BL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U2" zoomScale="106" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="BL6" sqref="BL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>2</v>
       </c>
@@ -3670,8 +5516,68 @@
       <c r="AP1">
         <v>100</v>
       </c>
+      <c r="AS1">
+        <v>10</v>
+      </c>
+      <c r="AT1">
+        <v>20</v>
+      </c>
+      <c r="AU1">
+        <v>30</v>
+      </c>
+      <c r="AV1">
+        <v>40</v>
+      </c>
+      <c r="AW1">
+        <v>50</v>
+      </c>
+      <c r="AX1">
+        <v>60</v>
+      </c>
+      <c r="AY1">
+        <v>70</v>
+      </c>
+      <c r="AZ1">
+        <v>80</v>
+      </c>
+      <c r="BA1">
+        <v>90</v>
+      </c>
+      <c r="BB1">
+        <v>100</v>
+      </c>
+      <c r="BC1">
+        <v>110</v>
+      </c>
+      <c r="BD1">
+        <v>120</v>
+      </c>
+      <c r="BE1">
+        <v>130</v>
+      </c>
+      <c r="BF1">
+        <v>140</v>
+      </c>
+      <c r="BG1">
+        <v>150</v>
+      </c>
+      <c r="BH1">
+        <v>160</v>
+      </c>
+      <c r="BI1">
+        <v>170</v>
+      </c>
+      <c r="BJ1">
+        <v>180</v>
+      </c>
+      <c r="BK1">
+        <v>190</v>
+      </c>
+      <c r="BL1">
+        <v>200</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.5</v>
       </c>
@@ -3774,8 +5680,92 @@
       <c r="AI2">
         <v>1.17</v>
       </c>
+      <c r="AJ2">
+        <v>1.05</v>
+      </c>
+      <c r="AK2">
+        <v>0.92</v>
+      </c>
+      <c r="AL2">
+        <v>1.34</v>
+      </c>
+      <c r="AM2">
+        <v>0.8</v>
+      </c>
+      <c r="AN2">
+        <v>0.75</v>
+      </c>
+      <c r="AO2">
+        <v>0.78</v>
+      </c>
+      <c r="AP2">
+        <v>0.82</v>
+      </c>
+      <c r="AR2">
+        <v>1.5</v>
+      </c>
+      <c r="AS2">
+        <v>1.69</v>
+      </c>
+      <c r="AT2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AU2">
+        <v>1.62</v>
+      </c>
+      <c r="AV2">
+        <v>1.25</v>
+      </c>
+      <c r="AW2">
+        <v>1.17</v>
+      </c>
+      <c r="AX2">
+        <v>1.45</v>
+      </c>
+      <c r="AY2">
+        <v>1.05</v>
+      </c>
+      <c r="AZ2">
+        <v>1.34</v>
+      </c>
+      <c r="BA2">
+        <v>0.75</v>
+      </c>
+      <c r="BB2">
+        <v>0.82</v>
+      </c>
+      <c r="BC2">
+        <v>0.85</v>
+      </c>
+      <c r="BD2">
+        <v>0.69</v>
+      </c>
+      <c r="BE2">
+        <v>0.7</v>
+      </c>
+      <c r="BF2">
+        <v>0.62</v>
+      </c>
+      <c r="BG2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="BH2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BI2">
+        <v>0.53</v>
+      </c>
+      <c r="BJ2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BK2">
+        <v>0.51</v>
+      </c>
+      <c r="BL2">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3878,8 +5868,92 @@
       <c r="AI3">
         <v>1.31</v>
       </c>
+      <c r="AJ3">
+        <v>1.56</v>
+      </c>
+      <c r="AK3">
+        <v>1.45</v>
+      </c>
+      <c r="AL3">
+        <v>1.24</v>
+      </c>
+      <c r="AM3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AN3">
+        <v>1.23</v>
+      </c>
+      <c r="AO3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AP3">
+        <v>1.05</v>
+      </c>
+      <c r="AR3">
+        <v>2</v>
+      </c>
+      <c r="AS3">
+        <v>2.71</v>
+      </c>
+      <c r="AT3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AU3">
+        <v>1.56</v>
+      </c>
+      <c r="AV3">
+        <v>1.98</v>
+      </c>
+      <c r="AW3">
+        <v>1.31</v>
+      </c>
+      <c r="AX3">
+        <v>1.49</v>
+      </c>
+      <c r="AY3">
+        <v>1.56</v>
+      </c>
+      <c r="AZ3">
+        <v>1.24</v>
+      </c>
+      <c r="BA3">
+        <v>1.23</v>
+      </c>
+      <c r="BB3">
+        <v>1.05</v>
+      </c>
+      <c r="BC3">
+        <v>1.17</v>
+      </c>
+      <c r="BD3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="BE3">
+        <v>1.03</v>
+      </c>
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>0.97</v>
+      </c>
+      <c r="BH3">
+        <v>1.03</v>
+      </c>
+      <c r="BI3">
+        <v>0.92</v>
+      </c>
+      <c r="BJ3">
+        <v>0.95</v>
+      </c>
+      <c r="BK3">
+        <v>0.91</v>
+      </c>
+      <c r="BL3">
+        <v>0.93</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.5</v>
       </c>
@@ -3982,8 +6056,92 @@
       <c r="AI4">
         <v>2.3199999999999998</v>
       </c>
+      <c r="AJ4">
+        <v>2.25</v>
+      </c>
+      <c r="AK4">
+        <v>2.21</v>
+      </c>
+      <c r="AL4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AM4">
+        <v>2.29</v>
+      </c>
+      <c r="AN4">
+        <v>2.35</v>
+      </c>
+      <c r="AO4">
+        <v>1.94</v>
+      </c>
+      <c r="AP4">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AR4">
+        <v>2.5</v>
+      </c>
+      <c r="AS4">
+        <v>3.72</v>
+      </c>
+      <c r="AT4">
+        <v>2.86</v>
+      </c>
+      <c r="AU4">
+        <v>2.52</v>
+      </c>
+      <c r="AV4">
+        <v>2.44</v>
+      </c>
+      <c r="AW4">
+        <v>2.23</v>
+      </c>
+      <c r="AX4">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AY4">
+        <v>2.25</v>
+      </c>
+      <c r="AZ4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="BA4">
+        <v>2.35</v>
+      </c>
+      <c r="BB4">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="BC4">
+        <v>2.46</v>
+      </c>
+      <c r="BD4">
+        <v>2.17</v>
+      </c>
+      <c r="BE4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BF4">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="BG4">
+        <v>2.1</v>
+      </c>
+      <c r="BH4">
+        <v>2.11</v>
+      </c>
+      <c r="BI4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="BJ4">
+        <v>1.95</v>
+      </c>
+      <c r="BK4">
+        <v>1.94</v>
+      </c>
+      <c r="BL4">
+        <v>1.96</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4085,6 +6243,90 @@
       </c>
       <c r="AI5">
         <v>3.69</v>
+      </c>
+      <c r="AJ5">
+        <v>3.87</v>
+      </c>
+      <c r="AK5">
+        <v>3.65</v>
+      </c>
+      <c r="AL5">
+        <v>3.71</v>
+      </c>
+      <c r="AM5">
+        <v>3.33</v>
+      </c>
+      <c r="AN5">
+        <v>3.31</v>
+      </c>
+      <c r="AO5">
+        <v>3.16</v>
+      </c>
+      <c r="AP5">
+        <v>3.27</v>
+      </c>
+      <c r="AR5">
+        <v>3</v>
+      </c>
+      <c r="AS5">
+        <v>5</v>
+      </c>
+      <c r="AT5">
+        <v>5.04</v>
+      </c>
+      <c r="AU5">
+        <v>5.52</v>
+      </c>
+      <c r="AV5">
+        <v>5.08</v>
+      </c>
+      <c r="AW5">
+        <v>4.92</v>
+      </c>
+      <c r="AX5">
+        <v>4.01</v>
+      </c>
+      <c r="AY5">
+        <v>3.87</v>
+      </c>
+      <c r="AZ5">
+        <v>3.71</v>
+      </c>
+      <c r="BA5">
+        <v>3.31</v>
+      </c>
+      <c r="BB5">
+        <v>3.27</v>
+      </c>
+      <c r="BC5">
+        <v>3.21</v>
+      </c>
+      <c r="BD5">
+        <v>3.02</v>
+      </c>
+      <c r="BE5">
+        <v>3.02</v>
+      </c>
+      <c r="BF5">
+        <v>2.98</v>
+      </c>
+      <c r="BG5">
+        <v>2.87</v>
+      </c>
+      <c r="BH5">
+        <v>2.91</v>
+      </c>
+      <c r="BI5">
+        <v>2.91</v>
+      </c>
+      <c r="BJ5">
+        <v>2.82</v>
+      </c>
+      <c r="BK5">
+        <v>2.79</v>
+      </c>
+      <c r="BL5">
+        <v>2.64</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harys/Desktop/pnd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491DE958-4408-1C40-936A-9B1855A0EE78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A100023A-76E8-A548-9D86-D6A0E5B77FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="500" windowWidth="31160" windowHeight="19100" xr2:uid="{5E9AE712-D69A-B540-B6CC-D396FE525917}"/>
+    <workbookView xWindow="4680" yWindow="540" windowWidth="31160" windowHeight="19100" xr2:uid="{5E9AE712-D69A-B540-B6CC-D396FE525917}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,10 +191,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$AJ$1</c:f>
+              <c:f>Sheet1!$B$1:$AT$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -299,16 +299,46 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$AJ$2</c:f>
+              <c:f>Sheet1!$B$2:$AT$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0.16</c:v>
                 </c:pt>
@@ -372,11 +402,77 @@
                 <c:pt idx="20">
                   <c:v>0.96</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97</c:v>
+                </c:pt>
                 <c:pt idx="22">
                   <c:v>1.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -416,10 +512,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$AJ$1</c:f>
+              <c:f>Sheet1!$B$1:$AT$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -524,16 +620,46 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$AJ$3</c:f>
+              <c:f>Sheet1!$B$3:$AT$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0.24</c:v>
                 </c:pt>
@@ -597,11 +723,77 @@
                 <c:pt idx="20">
                   <c:v>1.88</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.89</c:v>
+                </c:pt>
                 <c:pt idx="22">
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.29</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,10 +833,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$AJ$1</c:f>
+              <c:f>Sheet1!$B$1:$AT$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -749,16 +941,46 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$AJ$4</c:f>
+              <c:f>Sheet1!$B$4:$AT$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
                 </c:pt>
@@ -822,11 +1044,77 @@
                 <c:pt idx="20">
                   <c:v>4.1500000000000004</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.71</c:v>
+                </c:pt>
                 <c:pt idx="22">
                   <c:v>4.37</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.3699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.43</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.74</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.73</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.99</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.09</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,10 +1154,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$AJ$1</c:f>
+              <c:f>Sheet1!$B$1:$AT$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -974,16 +1262,46 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$AJ$5</c:f>
+              <c:f>Sheet1!$B$5:$AT$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0.23</c:v>
                 </c:pt>
@@ -1047,11 +1365,77 @@
                 <c:pt idx="20">
                   <c:v>6.99</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.12</c:v>
+                </c:pt>
                 <c:pt idx="22">
                   <c:v>7.82</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.67</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.44</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.65</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.85</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.84</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.23</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.36</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.5299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.64</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.7100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2279,15 +2663,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AFF326-E4EC-8E4E-BCF7-509F296D25C9}">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AT5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="117" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="AQ6" sqref="AQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>2</v>
       </c>
@@ -2393,8 +2777,38 @@
       <c r="AJ1">
         <v>300</v>
       </c>
+      <c r="AK1">
+        <v>310</v>
+      </c>
+      <c r="AL1">
+        <v>320</v>
+      </c>
+      <c r="AM1">
+        <v>330</v>
+      </c>
+      <c r="AN1">
+        <v>340</v>
+      </c>
+      <c r="AO1">
+        <v>350</v>
+      </c>
+      <c r="AP1">
+        <v>360</v>
+      </c>
+      <c r="AQ1">
+        <v>370</v>
+      </c>
+      <c r="AR1">
+        <v>380</v>
+      </c>
+      <c r="AS1">
+        <v>390</v>
+      </c>
+      <c r="AT1">
+        <v>400</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.5</v>
       </c>
@@ -2461,14 +2875,80 @@
       <c r="V2">
         <v>0.96</v>
       </c>
+      <c r="W2">
+        <v>0.97</v>
+      </c>
       <c r="X2">
         <v>1.01</v>
       </c>
       <c r="Y2">
         <v>1</v>
       </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1.02</v>
+      </c>
+      <c r="AB2">
+        <v>1.03</v>
+      </c>
+      <c r="AC2">
+        <v>1.04</v>
+      </c>
+      <c r="AD2">
+        <v>1.04</v>
+      </c>
+      <c r="AE2">
+        <v>1.07</v>
+      </c>
+      <c r="AF2">
+        <v>1.06</v>
+      </c>
+      <c r="AG2">
+        <v>1.08</v>
+      </c>
+      <c r="AH2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AK2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AL2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AM2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>1.17</v>
+      </c>
+      <c r="AO2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AP2">
+        <v>1.17</v>
+      </c>
+      <c r="AQ2">
+        <v>1.19</v>
+      </c>
+      <c r="AR2">
+        <v>1.19</v>
+      </c>
+      <c r="AS2">
+        <v>1.19</v>
+      </c>
+      <c r="AT2">
+        <v>1.22</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2535,14 +3015,80 @@
       <c r="V3">
         <v>1.88</v>
       </c>
+      <c r="W3">
+        <v>1.89</v>
+      </c>
       <c r="X3">
         <v>2.2000000000000002</v>
       </c>
       <c r="Y3">
         <v>2.04</v>
       </c>
+      <c r="Z3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AA3">
+        <v>2.13</v>
+      </c>
+      <c r="AB3">
+        <v>2.16</v>
+      </c>
+      <c r="AC3">
+        <v>2.12</v>
+      </c>
+      <c r="AD3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AE3">
+        <v>2.1</v>
+      </c>
+      <c r="AF3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AG3">
+        <v>2.17</v>
+      </c>
+      <c r="AH3">
+        <v>2.12</v>
+      </c>
+      <c r="AI3">
+        <v>2.29</v>
+      </c>
+      <c r="AJ3">
+        <v>2.12</v>
+      </c>
+      <c r="AK3">
+        <v>2.12</v>
+      </c>
+      <c r="AL3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AM3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AN3">
+        <v>2.23</v>
+      </c>
+      <c r="AO3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AP3">
+        <v>2.14</v>
+      </c>
+      <c r="AQ3">
+        <v>2.15</v>
+      </c>
+      <c r="AR3">
+        <v>2.06</v>
+      </c>
+      <c r="AS3">
+        <v>2.13</v>
+      </c>
+      <c r="AT3">
+        <v>2.08</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.5</v>
       </c>
@@ -2609,14 +3155,80 @@
       <c r="V4">
         <v>4.1500000000000004</v>
       </c>
+      <c r="W4">
+        <v>4.71</v>
+      </c>
       <c r="X4">
         <v>4.37</v>
       </c>
       <c r="Y4">
         <v>5.4</v>
       </c>
+      <c r="Z4">
+        <v>8.18</v>
+      </c>
+      <c r="AA4">
+        <v>8.33</v>
+      </c>
+      <c r="AB4">
+        <v>8.44</v>
+      </c>
+      <c r="AC4">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="AD4">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="AE4">
+        <v>8.76</v>
+      </c>
+      <c r="AF4">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="AG4">
+        <v>9.11</v>
+      </c>
+      <c r="AH4">
+        <v>9.32</v>
+      </c>
+      <c r="AI4">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="AJ4">
+        <v>9.43</v>
+      </c>
+      <c r="AK4">
+        <v>9.74</v>
+      </c>
+      <c r="AL4">
+        <v>9.73</v>
+      </c>
+      <c r="AM4">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="AN4">
+        <v>9.81</v>
+      </c>
+      <c r="AO4">
+        <v>9.99</v>
+      </c>
+      <c r="AP4">
+        <v>10.18</v>
+      </c>
+      <c r="AQ4">
+        <v>10.09</v>
+      </c>
+      <c r="AR4">
+        <v>10.3</v>
+      </c>
+      <c r="AS4">
+        <v>10.44</v>
+      </c>
+      <c r="AT4">
+        <v>10.51</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2683,11 +3295,77 @@
       <c r="V5">
         <v>6.99</v>
       </c>
+      <c r="W5">
+        <v>7.12</v>
+      </c>
       <c r="X5">
         <v>7.82</v>
       </c>
       <c r="Y5">
         <v>7.45</v>
+      </c>
+      <c r="Z5">
+        <v>7.67</v>
+      </c>
+      <c r="AA5">
+        <v>7.8</v>
+      </c>
+      <c r="AB5">
+        <v>8.01</v>
+      </c>
+      <c r="AC5">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="AD5">
+        <v>8.23</v>
+      </c>
+      <c r="AE5">
+        <v>8.35</v>
+      </c>
+      <c r="AF5">
+        <v>8.44</v>
+      </c>
+      <c r="AG5">
+        <v>8.65</v>
+      </c>
+      <c r="AH5">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="AI5">
+        <v>8.85</v>
+      </c>
+      <c r="AJ5">
+        <v>8.84</v>
+      </c>
+      <c r="AK5">
+        <v>8.99</v>
+      </c>
+      <c r="AL5">
+        <v>9.14</v>
+      </c>
+      <c r="AM5">
+        <v>9.23</v>
+      </c>
+      <c r="AN5">
+        <v>9.32</v>
+      </c>
+      <c r="AO5">
+        <v>9.36</v>
+      </c>
+      <c r="AP5">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="AQ5">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="AR5">
+        <v>9.64</v>
+      </c>
+      <c r="AS5">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="AT5">
+        <v>9.85</v>
       </c>
     </row>
   </sheetData>
